--- a/results/pvalue_SIDER_rare_enzyme_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_enzyme_AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.329</t>
+          <t>8.985</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.571</t>
+          <t>11.802</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.019</t>
+          <t>9.409</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.052</t>
+          <t>12.489</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>26.904</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.103</t>
+          <t>23.82</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>42.496</t>
+          <t>40.385</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35.261</t>
+          <t>33.614</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>44.692</t>
+          <t>23.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
